--- a/Results/Mean_Max_temp_transects_ALL_results.xlsx
+++ b/Results/Mean_Max_temp_transects_ALL_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="220">
   <si>
     <t>Name</t>
   </si>
@@ -684,9 +684,6 @@
   </si>
   <si>
     <t>DIFF</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -730,11 +727,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68:K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3302,20 +3300,21 @@
       <c r="F69" t="s">
         <v>9</v>
       </c>
-      <c r="G69" t="s">
-        <v>220</v>
-      </c>
-      <c r="H69" t="s">
-        <v>220</v>
-      </c>
-      <c r="I69" t="s">
-        <v>220</v>
-      </c>
-      <c r="J69" t="s">
-        <v>220</v>
-      </c>
-      <c r="K69" t="s">
-        <v>220</v>
+      <c r="G69" s="2">
+        <v>22.36317</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1.03857</v>
+      </c>
+      <c r="I69" s="2">
+        <v>22.527850000000001</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0.85655930000000002</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="1"/>
+        <v>0.1646800000000006</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3652,7 +3651,7 @@
   <sortState ref="A2:J79">
     <sortCondition descending="1" ref="G46"/>
   </sortState>
-  <conditionalFormatting sqref="K1:K68 K70:K1048576">
+  <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.031871796</formula>
     </cfRule>
